--- a/4g/whitebox scematic.xlsx
+++ b/4g/whitebox scematic.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\github\pop\4g\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9D7B762C-AE4F-41EF-9138-EB8361E34878}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="9555" windowHeight="6735"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="9555" windowHeight="6735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -102,9 +108,6 @@
     <t>(0;0) ( x,y)</t>
   </si>
   <si>
-    <t>(x,y)(x,-y)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Other </t>
   </si>
   <si>
@@ -121,12 +124,15 @@
   </si>
   <si>
     <t>nul radian</t>
+  </si>
+  <si>
+    <t>(x,y)(-x,-y)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -169,14 +175,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kontortema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kontor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -214,9 +223,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kontor">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -249,9 +258,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -284,9 +310,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kontor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -459,22 +502,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.73046875" customWidth="1"/>
+    <col min="3" max="3" width="35.265625" customWidth="1"/>
+    <col min="6" max="6" width="15.73046875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -488,7 +531,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -500,7 +543,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -511,7 +554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -522,7 +565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -533,21 +576,21 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
         <v>31</v>
       </c>
-      <c r="G10" t="s">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="F11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>33</v>
       </c>
-      <c r="G11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -567,7 +610,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="F13" t="s">
         <v>25</v>
       </c>
@@ -578,7 +621,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -598,7 +641,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="F15" t="s">
         <v>25</v>
       </c>
@@ -609,7 +652,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -623,13 +666,13 @@
         <v>27</v>
       </c>
       <c r="G16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" t="s">
         <v>28</v>
       </c>
-      <c r="I16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="F17" t="s">
         <v>22</v>
       </c>
@@ -637,10 +680,10 @@
         <v>22</v>
       </c>
       <c r="I17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -660,7 +703,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="F19" t="s">
         <v>22</v>
       </c>
@@ -677,24 +720,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
